--- a/analysis/xlsx/2020/2020_나이대별_판매량.xlsx
+++ b/analysis/xlsx/2020/2020_나이대별_판매량.xlsx
@@ -485,9 +485,9 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2020년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
-2020년도 20대 - 공급가액: 487208000.0, 예측 공급가액: 487208000.0
-2020년도 30대 - 공급가액: 596790000.0, 예측 공급가액: 596790000.0
-2020년도 40대 - 공급가액: 319379000.0, 예측 공급가액: 319379000.0</t>
+2020년도 20대 - 공급가액: 518284000.0, 예측 공급가액: 518284000.0
+2020년도 30대 - 공급가액: 535608000.0, 예측 공급가액: 535608000.0
+2020년도 40대 - 공급가액: 349485000.0, 예측 공급가액: 349485000.0</t>
         </is>
       </c>
     </row>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>487208000</v>
+        <v>518284000</v>
       </c>
       <c r="D3" t="n">
-        <v>487208000</v>
+        <v>518284000</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>596790000</v>
+        <v>535608000</v>
       </c>
       <c r="D4" t="n">
-        <v>596790000</v>
+        <v>535608000</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>319379000</v>
+        <v>349485000</v>
       </c>
       <c r="D5" t="n">
-        <v>319379000</v>
+        <v>349485000</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
